--- a/data/customers.xlsx
+++ b/data/customers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,14 +44,75 @@
   </si>
   <si>
     <t xml:space="preserve">Уровень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Любовь Викторовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example1@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гибрострой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смирнова Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example2@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мосводоканал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов Петр Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example3@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строймостинвест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">муж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петров Иван Федорович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example4@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Догмостконсалдинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сидоров Денис Муратович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example5@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Говностройинвест</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -119,8 +180,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,18 +210,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="20.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -178,7 +247,140 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>79091112231</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>34368</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>79091112232</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>34489</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>79091112233</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>34520</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>79091112234</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>34552</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>79091112235</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>34552</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="example1@mail.ru"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
